--- a/bank statement generator/bank_statements/statement_72.xlsx
+++ b/bank statement generator/bank_statements/statement_72.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 25.12.2023</t>
+          <t>KONTOSTAND AM 12.04.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,132 +759,132 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>28.12.</t>
+          <t>14.04.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>29.12.</t>
+          <t>15.04.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG SHELL TANKSTELLE</t>
+          <t>PAYPAL PADFKX</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>78,61-</t>
+          <t>17,38-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>01.01.</t>
+          <t>17.04.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>02.01.</t>
+          <t>18.04.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>KARTENZ./17.04 ALDI SUED RO</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>27,49-</t>
+          <t>103,58-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>02.01.</t>
+          <t>21.04.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>03.01.</t>
+          <t>22.04.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-29054584</t>
+          <t>BEITRAG Allianz SE K-99970195</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>54,61-</t>
+          <t>57,10-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>04.01.</t>
+          <t>23.04.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>05.01.</t>
+          <t>24.04.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./04.01 LIDL RO</t>
+          <t>KARTENZAHLUNG SHELL TANKSTELLE</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>125,21-</t>
+          <t>47,46-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>08.01.</t>
+          <t>27.04.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>09.01.</t>
+          <t>28.04.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 29637541</t>
+          <t>AMAZON.DE MKTPLC EU BXSKJM</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>37,67-</t>
+          <t>60,96-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>12.01.</t>
+          <t>29.04.</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>13.01.</t>
+          <t>30.04.</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 37416231</t>
+          <t>ZALANDO MKTPLC EU GGRJBY</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
         <is>
-          <t>87,63-</t>
+          <t>204,13-</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 14.01.2024</t>
+          <t>KONTOSTAND AM 01.05.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>411,22-</t>
+          <t>490,61-</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 19.01.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 11.05.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
